--- a/Code/Results/Cases/Case_3_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9625479263709451</v>
+        <v>0.4640172698507286</v>
       </c>
       <c r="C2">
-        <v>0.1659319302459359</v>
+        <v>0.3352467479746366</v>
       </c>
       <c r="D2">
-        <v>0.07704938290899577</v>
+        <v>0.03713129615863409</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4211769971604085</v>
+        <v>0.7237954068354213</v>
       </c>
       <c r="G2">
-        <v>0.3186300935757416</v>
+        <v>0.5654879152002366</v>
       </c>
       <c r="H2">
-        <v>0.287231257342107</v>
+        <v>0.7046062645174516</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7745941257622491</v>
+        <v>0.2344323194235045</v>
       </c>
       <c r="L2">
-        <v>0.2259506590546181</v>
+        <v>0.2975902557459023</v>
       </c>
       <c r="M2">
-        <v>0.2345794382250901</v>
+        <v>0.1715587280925135</v>
       </c>
       <c r="N2">
-        <v>0.8227803602419437</v>
+        <v>1.699601298836583</v>
       </c>
       <c r="O2">
-        <v>1.225069336572574</v>
+        <v>2.515919276992392</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8372469294186828</v>
+        <v>0.4282631982735552</v>
       </c>
       <c r="C3">
-        <v>0.1692188684602058</v>
+        <v>0.3369559749467186</v>
       </c>
       <c r="D3">
-        <v>0.06893816654176277</v>
+        <v>0.03436536845873661</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.402718128284981</v>
+        <v>0.7240507523788651</v>
       </c>
       <c r="G3">
-        <v>0.3091338091595475</v>
+        <v>0.5672943804798578</v>
       </c>
       <c r="H3">
-        <v>0.2877644471642569</v>
+        <v>0.7086917066676364</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6788630608817243</v>
+        <v>0.2044361969667108</v>
       </c>
       <c r="L3">
-        <v>0.2065117945113997</v>
+        <v>0.2941627243645826</v>
       </c>
       <c r="M3">
-        <v>0.2059238582712801</v>
+        <v>0.1641598477432105</v>
       </c>
       <c r="N3">
-        <v>0.8594066163465195</v>
+        <v>1.715745469639874</v>
       </c>
       <c r="O3">
-        <v>1.20573842807444</v>
+        <v>2.528071116980612</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7604784801488904</v>
+        <v>0.4064267507648367</v>
       </c>
       <c r="C4">
-        <v>0.1713334010191687</v>
+        <v>0.3380675140652194</v>
       </c>
       <c r="D4">
-        <v>0.06393923628969844</v>
+        <v>0.03265123221821398</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3920897012968538</v>
+        <v>0.7245971059525687</v>
       </c>
       <c r="G4">
-        <v>0.3039351180329319</v>
+        <v>0.5687296117110066</v>
       </c>
       <c r="H4">
-        <v>0.2885005150974322</v>
+        <v>0.7114618991301072</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6200067370612885</v>
+        <v>0.1859594257016397</v>
       </c>
       <c r="L4">
-        <v>0.1948272602948435</v>
+        <v>0.2922071844856404</v>
       </c>
       <c r="M4">
-        <v>0.1884445703376088</v>
+        <v>0.1596888094830078</v>
       </c>
       <c r="N4">
-        <v>0.8828646179653381</v>
+        <v>1.726173716295994</v>
       </c>
       <c r="O4">
-        <v>1.196056386189198</v>
+        <v>2.536763336162494</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7292277719220976</v>
+        <v>0.3975582094535355</v>
       </c>
       <c r="C5">
-        <v>0.1722192105101819</v>
+        <v>0.3385361169604391</v>
       </c>
       <c r="D5">
-        <v>0.06189712514199641</v>
+        <v>0.03194875477886683</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.387928308724824</v>
+        <v>0.7249178163121641</v>
       </c>
       <c r="G5">
-        <v>0.3019686883889605</v>
+        <v>0.5693964975257657</v>
       </c>
       <c r="H5">
-        <v>0.288900247633606</v>
+        <v>0.7126566702474193</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5959977044682034</v>
+        <v>0.1784156134481378</v>
       </c>
       <c r="L5">
-        <v>0.1901253605426021</v>
+        <v>0.2914478408541612</v>
       </c>
       <c r="M5">
-        <v>0.1813478231234527</v>
+        <v>0.1578850460230754</v>
       </c>
       <c r="N5">
-        <v>0.8926627545234007</v>
+        <v>1.730553021586636</v>
       </c>
       <c r="O5">
-        <v>1.192640057091907</v>
+        <v>2.540615248542366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7240403605033521</v>
+        <v>0.3960874250831523</v>
       </c>
       <c r="C6">
-        <v>0.172367752311235</v>
+        <v>0.338614873848087</v>
       </c>
       <c r="D6">
-        <v>0.06155772250065183</v>
+        <v>0.03183187110766283</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3872473504448593</v>
+        <v>0.7249769961370944</v>
       </c>
       <c r="G6">
-        <v>0.3016511542121307</v>
+        <v>0.569512187894297</v>
       </c>
       <c r="H6">
-        <v>0.2889725642812806</v>
+        <v>0.7128590434892956</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5920093897260017</v>
+        <v>0.1771621144824707</v>
       </c>
       <c r="L6">
-        <v>0.189348117136845</v>
+        <v>0.291324023368233</v>
       </c>
       <c r="M6">
-        <v>0.180170916883263</v>
+        <v>0.1575866370908123</v>
       </c>
       <c r="N6">
-        <v>0.8943040107143503</v>
+        <v>1.731288037363338</v>
       </c>
       <c r="O6">
-        <v>1.192104147202997</v>
+        <v>2.541273571391457</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7600568997662265</v>
+        <v>0.4063070242403342</v>
       </c>
       <c r="C7">
-        <v>0.1713452498286028</v>
+        <v>0.3380737704284265</v>
       </c>
       <c r="D7">
-        <v>0.06391171635719672</v>
+        <v>0.03264177432512838</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3920329016959201</v>
+        <v>0.7246010339547624</v>
       </c>
       <c r="G7">
-        <v>0.303907991171485</v>
+        <v>0.5687382734431381</v>
       </c>
       <c r="H7">
-        <v>0.2885055058869668</v>
+        <v>0.7114777453109724</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6196830491688132</v>
+        <v>0.1858577448104199</v>
       </c>
       <c r="L7">
-        <v>0.1947636118250458</v>
+        <v>0.2921967915304648</v>
       </c>
       <c r="M7">
-        <v>0.1883487586322978</v>
+        <v>0.1596644093366351</v>
       </c>
       <c r="N7">
-        <v>0.8829957984952008</v>
+        <v>1.726232251888829</v>
       </c>
       <c r="O7">
-        <v>1.196008196618891</v>
+        <v>2.536814029874819</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9193039780892036</v>
+        <v>0.4516654204919348</v>
       </c>
       <c r="C8">
-        <v>0.167045207503957</v>
+        <v>0.33582322824725</v>
       </c>
       <c r="D8">
-        <v>0.07425629474089135</v>
+        <v>0.03618091117813549</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4146612998999757</v>
+        <v>0.7238026565841125</v>
       </c>
       <c r="G8">
-        <v>0.3152203709183254</v>
+        <v>0.5660431279150657</v>
       </c>
       <c r="H8">
-        <v>0.2873284398212519</v>
+        <v>0.7059606568783465</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7415987890790632</v>
+        <v>0.2241021789450599</v>
       </c>
       <c r="L8">
-        <v>0.2191938993740621</v>
+        <v>0.2963775765413459</v>
       </c>
       <c r="M8">
-        <v>0.2246733179456442</v>
+        <v>0.1689927519031933</v>
       </c>
       <c r="N8">
-        <v>0.8352048820481182</v>
+        <v>1.705060810937481</v>
       </c>
       <c r="O8">
-        <v>1.217937283184028</v>
+        <v>2.519853886614342</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.233349062813318</v>
+        <v>0.5415152596551422</v>
       </c>
       <c r="C9">
-        <v>0.1593819659397333</v>
+        <v>0.3319008218616162</v>
       </c>
       <c r="D9">
-        <v>0.09441066821528921</v>
+        <v>0.04299432657980873</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4649927413783459</v>
+        <v>0.7253243031719805</v>
       </c>
       <c r="G9">
-        <v>0.3427435421729896</v>
+        <v>0.5633443465369297</v>
       </c>
       <c r="H9">
-        <v>0.2884042479059161</v>
+        <v>0.6972146396492178</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9803246146274489</v>
+        <v>0.2986139881502368</v>
       </c>
       <c r="L9">
-        <v>0.2692595177610855</v>
+        <v>0.3057548215564054</v>
       </c>
       <c r="M9">
-        <v>0.2969570292778272</v>
+        <v>0.1878510194241088</v>
       </c>
       <c r="N9">
-        <v>0.7494076979101232</v>
+        <v>1.667632680648981</v>
       </c>
       <c r="O9">
-        <v>1.279278987079309</v>
+        <v>2.496353262859884</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.465815245193312</v>
+        <v>0.6080526127312851</v>
       </c>
       <c r="C10">
-        <v>0.1542272017101425</v>
+        <v>0.3293160946131266</v>
       </c>
       <c r="D10">
-        <v>0.1091631116664615</v>
+        <v>0.04792178198705699</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.506130125380146</v>
+        <v>0.7283204950564368</v>
       </c>
       <c r="G10">
-        <v>0.3666940037631292</v>
+        <v>0.5629381486211713</v>
       </c>
       <c r="H10">
-        <v>0.291463912437095</v>
+        <v>0.6920480096366646</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.155902895022223</v>
+        <v>0.3530440763183265</v>
       </c>
       <c r="L10">
-        <v>0.3076036620418989</v>
+        <v>0.3133594902833323</v>
       </c>
       <c r="M10">
-        <v>0.3509084135955547</v>
+        <v>0.2020455460567163</v>
       </c>
       <c r="N10">
-        <v>0.6915305501637707</v>
+        <v>1.642622643838122</v>
       </c>
       <c r="O10">
-        <v>1.33696421043868</v>
+        <v>2.485026478564293</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.572104439666163</v>
+        <v>0.6384311163348286</v>
       </c>
       <c r="C11">
-        <v>0.1519869002137959</v>
+        <v>0.3282042732030277</v>
       </c>
       <c r="D11">
-        <v>0.115868330454191</v>
+        <v>0.05014619301184098</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.525870811569618</v>
+        <v>0.7300906436314136</v>
       </c>
       <c r="G11">
-        <v>0.3785102958902513</v>
+        <v>0.5630957240756516</v>
       </c>
       <c r="H11">
-        <v>0.2933968860144205</v>
+        <v>0.6899700013653103</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.235913937040976</v>
+        <v>0.3777341155911529</v>
       </c>
       <c r="L11">
-        <v>0.3254438438343641</v>
+        <v>0.3169736965693204</v>
       </c>
       <c r="M11">
-        <v>0.37568365452222</v>
+        <v>0.2085756467486846</v>
       </c>
       <c r="N11">
-        <v>0.6663975793411288</v>
+        <v>1.631784337438654</v>
       </c>
       <c r="O11">
-        <v>1.366282804702962</v>
+        <v>2.481161349380983</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.612444365121974</v>
+        <v>0.6499499565371423</v>
       </c>
       <c r="C12">
-        <v>0.151153741278879</v>
+        <v>0.3277924212502725</v>
       </c>
       <c r="D12">
-        <v>0.1184070809334514</v>
+        <v>0.05098603113340516</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5335045807520089</v>
+        <v>0.7308194157070105</v>
       </c>
       <c r="G12">
-        <v>0.3831270304856247</v>
+        <v>0.5632046111054052</v>
       </c>
       <c r="H12">
-        <v>0.2942109337373608</v>
+        <v>0.6892221930554143</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.266240238819364</v>
+        <v>0.3870730428748459</v>
       </c>
       <c r="L12">
-        <v>0.3322615774655588</v>
+        <v>0.3183644838023838</v>
       </c>
       <c r="M12">
-        <v>0.3851029577196527</v>
+        <v>0.2110587913086093</v>
       </c>
       <c r="N12">
-        <v>0.6570592258115324</v>
+        <v>1.627757604991698</v>
       </c>
       <c r="O12">
-        <v>1.377857146379796</v>
+        <v>2.479882674976295</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.603752199052906</v>
+        <v>0.6474685051822178</v>
       </c>
       <c r="C13">
-        <v>0.1513324987287561</v>
+        <v>0.3278807135464348</v>
       </c>
       <c r="D13">
-        <v>0.1178603245407857</v>
+        <v>0.05080526866389334</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5318532899949346</v>
+        <v>0.7306598633079773</v>
       </c>
       <c r="G13">
-        <v>0.38212625075505</v>
+        <v>0.5631789716418467</v>
       </c>
       <c r="H13">
-        <v>0.2940318932427743</v>
+        <v>0.6893815096139662</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.259707558571051</v>
+        <v>0.385062219941716</v>
       </c>
       <c r="L13">
-        <v>0.3307904156498438</v>
+        <v>0.3180639685769222</v>
       </c>
       <c r="M13">
-        <v>0.3830726095573596</v>
+        <v>0.2105235443668221</v>
       </c>
       <c r="N13">
-        <v>0.6590623320442113</v>
+        <v>1.628621386934718</v>
       </c>
       <c r="O13">
-        <v>1.375342922720279</v>
+        <v>2.480149836724081</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.575421338222213</v>
+        <v>0.6393784784588377</v>
       </c>
       <c r="C14">
-        <v>0.1519180503247952</v>
+        <v>0.3281702062718246</v>
       </c>
       <c r="D14">
-        <v>0.116077199707334</v>
+        <v>0.05021533727834537</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5264956082579886</v>
+        <v>0.7301494291647614</v>
       </c>
       <c r="G14">
-        <v>0.3788872106690491</v>
+        <v>0.5631036959847791</v>
       </c>
       <c r="H14">
-        <v>0.2934621880476556</v>
+        <v>0.6899076957409562</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.238408295379344</v>
+        <v>0.3785026512749425</v>
       </c>
       <c r="L14">
-        <v>0.3260034702070556</v>
+        <v>0.3170876737830497</v>
       </c>
       <c r="M14">
-        <v>0.3764578116222665</v>
+        <v>0.2087797302431227</v>
       </c>
       <c r="N14">
-        <v>0.6656256791517032</v>
+        <v>1.631451502488726</v>
       </c>
       <c r="O14">
-        <v>1.36722539739506</v>
+        <v>2.48105244606171</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.558080055133473</v>
+        <v>0.6344250568642735</v>
       </c>
       <c r="C15">
-        <v>0.1522787009197906</v>
+        <v>0.3283487223302082</v>
       </c>
       <c r="D15">
-        <v>0.1149849499781652</v>
+        <v>0.04985366084231657</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.523234830106027</v>
+        <v>0.7298443832821278</v>
       </c>
       <c r="G15">
-        <v>0.3769220164792415</v>
+        <v>0.5630639965040416</v>
       </c>
       <c r="H15">
-        <v>0.2931240461991678</v>
+        <v>0.6902350882985502</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.22536574945417</v>
+        <v>0.3744833230680911</v>
       </c>
       <c r="L15">
-        <v>0.3230795588587512</v>
+        <v>0.3164925488410688</v>
       </c>
       <c r="M15">
-        <v>0.3724110586323235</v>
+        <v>0.2077129354411298</v>
       </c>
       <c r="N15">
-        <v>0.6696694395493461</v>
+        <v>1.633195122909882</v>
       </c>
       <c r="O15">
-        <v>1.362315556078926</v>
+        <v>2.481629403263867</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.458880936728747</v>
+        <v>0.6060694659284991</v>
       </c>
       <c r="C16">
-        <v>0.1543757286635028</v>
+        <v>0.3293900396975893</v>
       </c>
       <c r="D16">
-        <v>0.1087248326536709</v>
+        <v>0.04777606395862222</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5048615939738994</v>
+        <v>0.7282129968261941</v>
       </c>
       <c r="G16">
-        <v>0.3659411333062792</v>
+        <v>0.5629347386213226</v>
       </c>
       <c r="H16">
-        <v>0.291348835251739</v>
+        <v>0.6921892860498673</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.150677447654459</v>
+        <v>0.3514290615183882</v>
       </c>
       <c r="L16">
-        <v>0.3064461718544749</v>
+        <v>0.313126400359053</v>
       </c>
       <c r="M16">
-        <v>0.3492943101073038</v>
+        <v>0.2016202434092307</v>
       </c>
       <c r="N16">
-        <v>0.6931976998512415</v>
+        <v>1.643341797023853</v>
       </c>
       <c r="O16">
-        <v>1.33511257839524</v>
+        <v>2.485304966579378</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398172562172107</v>
+        <v>0.5887019857795508</v>
       </c>
       <c r="C17">
-        <v>0.1556890889394538</v>
+        <v>0.3300452204770856</v>
       </c>
       <c r="D17">
-        <v>0.1048832988406758</v>
+        <v>0.04649711606352724</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4938606962690599</v>
+        <v>0.7273164119194391</v>
       </c>
       <c r="G17">
-        <v>0.3594473656925743</v>
+        <v>0.56294311927455</v>
       </c>
       <c r="H17">
-        <v>0.2904013472844582</v>
+        <v>0.6934578198324317</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.104899721321345</v>
+        <v>0.3372675973400305</v>
       </c>
       <c r="L17">
-        <v>0.2963472822138584</v>
+        <v>0.3111009590216298</v>
       </c>
       <c r="M17">
-        <v>0.3351752665404035</v>
+        <v>0.1979011480845543</v>
       </c>
       <c r="N17">
-        <v>0.7079426328688312</v>
+        <v>1.649704479262693</v>
       </c>
       <c r="O17">
-        <v>1.319233066034855</v>
+        <v>2.487889438447525</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.363304633743013</v>
+        <v>0.5787230973348017</v>
       </c>
       <c r="C18">
-        <v>0.1564543376598841</v>
+        <v>0.3304280873913648</v>
       </c>
       <c r="D18">
-        <v>0.1026731810068924</v>
+        <v>0.04575989052661811</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4876292685237331</v>
+        <v>0.7268390500953359</v>
       </c>
       <c r="G18">
-        <v>0.3557984075619913</v>
+        <v>0.5629801647350803</v>
       </c>
       <c r="H18">
-        <v>0.2899070402136772</v>
+        <v>0.6942130829448274</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.078582227190509</v>
+        <v>0.3291156948053526</v>
       </c>
       <c r="L18">
-        <v>0.2905757466837002</v>
+        <v>0.3099505553605866</v>
       </c>
       <c r="M18">
-        <v>0.3270759934393581</v>
+        <v>0.1957688972947764</v>
       </c>
       <c r="N18">
-        <v>0.7165356236941642</v>
+        <v>1.653414847569652</v>
       </c>
       <c r="O18">
-        <v>1.310387373953489</v>
+        <v>2.489497152553326</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.351507144405531</v>
+        <v>0.5753462294406972</v>
       </c>
       <c r="C19">
-        <v>0.1567151230727255</v>
+        <v>0.3305587551450309</v>
       </c>
       <c r="D19">
-        <v>0.1019247618637493</v>
+        <v>0.04551000349029266</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4855355855216104</v>
+        <v>0.7266840096867782</v>
       </c>
       <c r="G19">
-        <v>0.3545774315947057</v>
+        <v>0.5629982428001483</v>
       </c>
       <c r="H19">
-        <v>0.2897482519652215</v>
+        <v>0.6944732072264941</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.069673518786999</v>
+        <v>0.3263544824496307</v>
       </c>
       <c r="L19">
-        <v>0.2886278268972688</v>
+        <v>0.3095635548805262</v>
       </c>
       <c r="M19">
-        <v>0.324337314552622</v>
+        <v>0.195048139119578</v>
       </c>
       <c r="N19">
-        <v>0.7194641074713628</v>
+        <v>1.654679825831345</v>
       </c>
       <c r="O19">
-        <v>1.307440930161505</v>
+        <v>2.490062317383206</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.40462981402527</v>
+        <v>0.590549709659399</v>
       </c>
       <c r="C20">
-        <v>0.1555482601737239</v>
+        <v>0.3299748520959049</v>
       </c>
       <c r="D20">
-        <v>0.1052922923644957</v>
+        <v>0.04663342899679179</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4950217496075169</v>
+        <v>0.7274078885751507</v>
       </c>
       <c r="G20">
-        <v>0.3601296603189468</v>
+        <v>0.5629388920579146</v>
       </c>
       <c r="H20">
-        <v>0.2904969355054732</v>
+        <v>0.6933201295251337</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.109771475207367</v>
+        <v>0.3387757965147387</v>
       </c>
       <c r="L20">
-        <v>0.2974184540127425</v>
+        <v>0.3113150627698928</v>
       </c>
       <c r="M20">
-        <v>0.3366759961024997</v>
+        <v>0.1982963417443955</v>
       </c>
       <c r="N20">
-        <v>0.7063613584857764</v>
+        <v>1.649021911311709</v>
       </c>
       <c r="O20">
-        <v>1.320893474406546</v>
+        <v>2.487601775099051</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.58374023463756</v>
+        <v>0.6417543095919598</v>
       </c>
       <c r="C21">
-        <v>0.1517456460256561</v>
+        <v>0.3280849265887653</v>
       </c>
       <c r="D21">
-        <v>0.1166009529899128</v>
+        <v>0.05038868251985207</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5280649019338171</v>
+        <v>0.7302977703474411</v>
       </c>
       <c r="G21">
-        <v>0.3798346568503916</v>
+        <v>0.5631244706594316</v>
       </c>
       <c r="H21">
-        <v>0.2936272616348532</v>
+        <v>0.6897520818363603</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.244663584593525</v>
+        <v>0.3804296489093417</v>
       </c>
       <c r="L21">
-        <v>0.3274077876029793</v>
+        <v>0.3173738344168413</v>
       </c>
       <c r="M21">
-        <v>0.3783996882245262</v>
+        <v>0.2092916513837082</v>
       </c>
       <c r="N21">
-        <v>0.6636929502004341</v>
+        <v>1.630618125573459</v>
       </c>
       <c r="O21">
-        <v>1.369596656839349</v>
+        <v>2.480782309270097</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.701333469677024</v>
+        <v>0.6753075130396269</v>
       </c>
       <c r="C22">
-        <v>0.1493490578068233</v>
+        <v>0.3269031910262221</v>
       </c>
       <c r="D22">
-        <v>0.1239898876065126</v>
+        <v>0.05282837978433008</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5505892071551699</v>
+        <v>0.7325271523060977</v>
       </c>
       <c r="G22">
-        <v>0.3935465564451306</v>
+        <v>0.5635326221809009</v>
       </c>
       <c r="H22">
-        <v>0.2961536544748924</v>
+        <v>0.6876479604629822</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.332989744977198</v>
+        <v>0.4075905038442613</v>
       </c>
       <c r="L22">
-        <v>0.3473716857108258</v>
+        <v>0.3214627464742108</v>
       </c>
       <c r="M22">
-        <v>0.4058889113767634</v>
+        <v>0.2165379040909556</v>
       </c>
       <c r="N22">
-        <v>0.6368533268121208</v>
+        <v>1.619041916203168</v>
       </c>
       <c r="O22">
-        <v>1.404193298923644</v>
+        <v>2.47740343756729</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.638518355339016</v>
+        <v>0.6573917146165229</v>
       </c>
       <c r="C23">
-        <v>0.1506200003903118</v>
+        <v>0.3275290256525771</v>
       </c>
       <c r="D23">
-        <v>0.1200462934589837</v>
+        <v>0.05152761367135383</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5384788850861426</v>
+        <v>0.7313061487607087</v>
       </c>
       <c r="G23">
-        <v>0.3861486303073747</v>
+        <v>0.563288540631163</v>
       </c>
       <c r="H23">
-        <v>0.2947598267242171</v>
+        <v>0.6887501488291861</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.285830476438122</v>
+        <v>0.3931001208585485</v>
       </c>
       <c r="L23">
-        <v>0.3366815566085535</v>
+        <v>0.3192686310042347</v>
       </c>
       <c r="M23">
-        <v>0.3911958352315352</v>
+        <v>0.212664986113495</v>
       </c>
       <c r="N23">
-        <v>0.6510799445416122</v>
+        <v>1.625179020627035</v>
       </c>
       <c r="O23">
-        <v>1.385465092553318</v>
+        <v>2.479108221132662</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401710385143218</v>
+        <v>0.5897143352391936</v>
       </c>
       <c r="C24">
-        <v>0.1556118971604405</v>
+        <v>0.3300066463427846</v>
       </c>
       <c r="D24">
-        <v>0.1051073913132612</v>
+        <v>0.04657180796370142</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4944965481013668</v>
+        <v>0.7273664133043098</v>
       </c>
       <c r="G24">
-        <v>0.3598209327730757</v>
+        <v>0.5629407027964817</v>
       </c>
       <c r="H24">
-        <v>0.2904535633542196</v>
+        <v>0.6933822984254903</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.107568953581961</v>
+        <v>0.3380939716749367</v>
       </c>
       <c r="L24">
-        <v>0.2969340703052126</v>
+        <v>0.3112182226959135</v>
       </c>
       <c r="M24">
-        <v>0.335997460648997</v>
+        <v>0.1981176562811271</v>
       </c>
       <c r="N24">
-        <v>0.7070758920577322</v>
+        <v>1.649330337129916</v>
       </c>
       <c r="O24">
-        <v>1.320141922483828</v>
+        <v>2.48773144808095</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.148136759237872</v>
+        <v>0.5171145277089977</v>
       </c>
       <c r="C25">
-        <v>0.1613720798250178</v>
+        <v>0.3329096110966887</v>
       </c>
       <c r="D25">
-        <v>0.08896991893848849</v>
+        <v>0.04116480182418059</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4506862249210855</v>
+        <v>0.7245825388630465</v>
       </c>
       <c r="G25">
-        <v>0.3346787382359651</v>
+        <v>0.5637975594416673</v>
       </c>
       <c r="H25">
-        <v>0.2877303108628553</v>
+        <v>0.6993592268542415</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9157406509888517</v>
+        <v>0.2785103765435508</v>
       </c>
       <c r="L25">
-        <v>0.2554598706104798</v>
+        <v>0.3030921844243295</v>
       </c>
       <c r="M25">
-        <v>0.2772694738358652</v>
+        <v>0.1826893768902451</v>
       </c>
       <c r="N25">
-        <v>0.7717372300286316</v>
+        <v>1.677320684818519</v>
       </c>
       <c r="O25">
-        <v>1.260577360691983</v>
+        <v>2.501667127458333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4640172698507286</v>
+        <v>0.9625479263709167</v>
       </c>
       <c r="C2">
-        <v>0.3352467479746366</v>
+        <v>0.1659319302461739</v>
       </c>
       <c r="D2">
-        <v>0.03713129615863409</v>
+        <v>0.07704938290897445</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7237954068354213</v>
+        <v>0.4211769971603943</v>
       </c>
       <c r="G2">
-        <v>0.5654879152002366</v>
+        <v>0.3186300935756847</v>
       </c>
       <c r="H2">
-        <v>0.7046062645174516</v>
+        <v>0.2872312573421141</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2344323194235045</v>
+        <v>0.7745941257622917</v>
       </c>
       <c r="L2">
-        <v>0.2975902557459023</v>
+        <v>0.2259506590545328</v>
       </c>
       <c r="M2">
-        <v>0.1715587280925135</v>
+        <v>0.2345794382250794</v>
       </c>
       <c r="N2">
-        <v>1.699601298836583</v>
+        <v>0.8227803602419348</v>
       </c>
       <c r="O2">
-        <v>2.515919276992392</v>
+        <v>1.225069336572588</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4282631982735552</v>
+        <v>0.8372469294189102</v>
       </c>
       <c r="C3">
-        <v>0.3369559749467186</v>
+        <v>0.1692188684601419</v>
       </c>
       <c r="D3">
-        <v>0.03436536845873661</v>
+        <v>0.06893816654186935</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7240507523788651</v>
+        <v>0.4027181282849739</v>
       </c>
       <c r="G3">
-        <v>0.5672943804798578</v>
+        <v>0.3091338091594764</v>
       </c>
       <c r="H3">
-        <v>0.7086917066676364</v>
+        <v>0.2877644471642569</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2044361969667108</v>
+        <v>0.6788630608817385</v>
       </c>
       <c r="L3">
-        <v>0.2941627243645826</v>
+        <v>0.2065117945114281</v>
       </c>
       <c r="M3">
-        <v>0.1641598477432105</v>
+        <v>0.2059238582712766</v>
       </c>
       <c r="N3">
-        <v>1.715745469639874</v>
+        <v>0.8594066163465133</v>
       </c>
       <c r="O3">
-        <v>2.528071116980612</v>
+        <v>1.205738428074426</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4064267507648367</v>
+        <v>0.7604784801487767</v>
       </c>
       <c r="C4">
-        <v>0.3380675140652194</v>
+        <v>0.1713334010191865</v>
       </c>
       <c r="D4">
-        <v>0.03265123221821398</v>
+        <v>0.06393923628997555</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7245971059525687</v>
+        <v>0.3920897012968467</v>
       </c>
       <c r="G4">
-        <v>0.5687296117110066</v>
+        <v>0.3039351180329959</v>
       </c>
       <c r="H4">
-        <v>0.7114618991301072</v>
+        <v>0.2885005150975388</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1859594257016397</v>
+        <v>0.6200067370613311</v>
       </c>
       <c r="L4">
-        <v>0.2922071844856404</v>
+        <v>0.1948272602948293</v>
       </c>
       <c r="M4">
-        <v>0.1596888094830078</v>
+        <v>0.1884445703375981</v>
       </c>
       <c r="N4">
-        <v>1.726173716295994</v>
+        <v>0.8828646179653248</v>
       </c>
       <c r="O4">
-        <v>2.536763336162494</v>
+        <v>1.196056386189241</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3975582094535355</v>
+        <v>0.7292277719222398</v>
       </c>
       <c r="C5">
-        <v>0.3385361169604391</v>
+        <v>0.1722192105103666</v>
       </c>
       <c r="D5">
-        <v>0.03194875477886683</v>
+        <v>0.06189712514176904</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7249178163121641</v>
+        <v>0.387928308724824</v>
       </c>
       <c r="G5">
-        <v>0.5693964975257657</v>
+        <v>0.301968688388925</v>
       </c>
       <c r="H5">
-        <v>0.7126566702474193</v>
+        <v>0.2889002476336131</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1784156134481378</v>
+        <v>0.5959977044681892</v>
       </c>
       <c r="L5">
-        <v>0.2914478408541612</v>
+        <v>0.1901253605425737</v>
       </c>
       <c r="M5">
-        <v>0.1578850460230754</v>
+        <v>0.1813478231234669</v>
       </c>
       <c r="N5">
-        <v>1.730553021586636</v>
+        <v>0.8926627545233332</v>
       </c>
       <c r="O5">
-        <v>2.540615248542366</v>
+        <v>1.192640057091907</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3960874250831523</v>
+        <v>0.7240403605033521</v>
       </c>
       <c r="C6">
-        <v>0.338614873848087</v>
+        <v>0.1723677523110148</v>
       </c>
       <c r="D6">
-        <v>0.03183187110766283</v>
+        <v>0.06155772250061631</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7249769961370944</v>
+        <v>0.3872473504448521</v>
       </c>
       <c r="G6">
-        <v>0.569512187894297</v>
+        <v>0.3016511542121094</v>
       </c>
       <c r="H6">
-        <v>0.7128590434892956</v>
+        <v>0.2889725642812806</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1771621144824707</v>
+        <v>0.5920093897260159</v>
       </c>
       <c r="L6">
-        <v>0.291324023368233</v>
+        <v>0.1893481171368379</v>
       </c>
       <c r="M6">
-        <v>0.1575866370908123</v>
+        <v>0.1801709168832453</v>
       </c>
       <c r="N6">
-        <v>1.731288037363338</v>
+        <v>0.8943040107143512</v>
       </c>
       <c r="O6">
-        <v>2.541273571391457</v>
+        <v>1.192104147202969</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4063070242403342</v>
+        <v>0.7600568997660844</v>
       </c>
       <c r="C7">
-        <v>0.3380737704284265</v>
+        <v>0.1713452498286134</v>
       </c>
       <c r="D7">
-        <v>0.03264177432512838</v>
+        <v>0.06391171635733173</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7246010339547624</v>
+        <v>0.3920329016959201</v>
       </c>
       <c r="G7">
-        <v>0.5687382734431381</v>
+        <v>0.3039079911714921</v>
       </c>
       <c r="H7">
-        <v>0.7114777453109724</v>
+        <v>0.2885055058868531</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1858577448104199</v>
+        <v>0.6196830491688416</v>
       </c>
       <c r="L7">
-        <v>0.2921967915304648</v>
+        <v>0.19476361182506</v>
       </c>
       <c r="M7">
-        <v>0.1596644093366351</v>
+        <v>0.1883487586323014</v>
       </c>
       <c r="N7">
-        <v>1.726232251888829</v>
+        <v>0.8829957984952026</v>
       </c>
       <c r="O7">
-        <v>2.536814029874819</v>
+        <v>1.196008196618891</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4516654204919348</v>
+        <v>0.919303978089232</v>
       </c>
       <c r="C8">
-        <v>0.33582322824725</v>
+        <v>0.1670452075039535</v>
       </c>
       <c r="D8">
-        <v>0.03618091117813549</v>
+        <v>0.07425629474079187</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7238026565841125</v>
+        <v>0.4146612998999828</v>
       </c>
       <c r="G8">
-        <v>0.5660431279150657</v>
+        <v>0.3152203709183823</v>
       </c>
       <c r="H8">
-        <v>0.7059606568783465</v>
+        <v>0.2873284398213656</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2241021789450599</v>
+        <v>0.741598789079049</v>
       </c>
       <c r="L8">
-        <v>0.2963775765413459</v>
+        <v>0.2191938993740337</v>
       </c>
       <c r="M8">
-        <v>0.1689927519031933</v>
+        <v>0.2246733179456442</v>
       </c>
       <c r="N8">
-        <v>1.705060810937481</v>
+        <v>0.8352048820481226</v>
       </c>
       <c r="O8">
-        <v>2.519853886614342</v>
+        <v>1.217937283184028</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5415152596551422</v>
+        <v>1.233349062813318</v>
       </c>
       <c r="C9">
-        <v>0.3319008218616162</v>
+        <v>0.1593819659394917</v>
       </c>
       <c r="D9">
-        <v>0.04299432657980873</v>
+        <v>0.09441066821516131</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7253243031719805</v>
+        <v>0.4649927413783317</v>
       </c>
       <c r="G9">
-        <v>0.5633443465369297</v>
+        <v>0.3427435421729967</v>
       </c>
       <c r="H9">
-        <v>0.6972146396492178</v>
+        <v>0.288404247905909</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2986139881502368</v>
+        <v>0.9803246146275058</v>
       </c>
       <c r="L9">
-        <v>0.3057548215564054</v>
+        <v>0.2692595177611423</v>
       </c>
       <c r="M9">
-        <v>0.1878510194241088</v>
+        <v>0.2969570292778272</v>
       </c>
       <c r="N9">
-        <v>1.667632680648981</v>
+        <v>0.7494076979101196</v>
       </c>
       <c r="O9">
-        <v>2.496353262859884</v>
+        <v>1.27927898707938</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6080526127312851</v>
+        <v>1.465815245193426</v>
       </c>
       <c r="C10">
-        <v>0.3293160946131266</v>
+        <v>0.1542272017103024</v>
       </c>
       <c r="D10">
-        <v>0.04792178198705699</v>
+        <v>0.1091631116664189</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7283204950564368</v>
+        <v>0.5061301253801318</v>
       </c>
       <c r="G10">
-        <v>0.5629381486211713</v>
+        <v>0.3666940037631434</v>
       </c>
       <c r="H10">
-        <v>0.6920480096366646</v>
+        <v>0.291463912437095</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3530440763183265</v>
+        <v>1.155902895022194</v>
       </c>
       <c r="L10">
-        <v>0.3133594902833323</v>
+        <v>0.3076036620418137</v>
       </c>
       <c r="M10">
-        <v>0.2020455460567163</v>
+        <v>0.3509084135955547</v>
       </c>
       <c r="N10">
-        <v>1.642622643838122</v>
+        <v>0.6915305501637103</v>
       </c>
       <c r="O10">
-        <v>2.485026478564293</v>
+        <v>1.336964210438651</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6384311163348286</v>
+        <v>1.572104439666163</v>
       </c>
       <c r="C11">
-        <v>0.3282042732030277</v>
+        <v>0.1519869002137959</v>
       </c>
       <c r="D11">
-        <v>0.05014619301184098</v>
+        <v>0.1158683304540773</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7300906436314136</v>
+        <v>0.5258708115696464</v>
       </c>
       <c r="G11">
-        <v>0.5630957240756516</v>
+        <v>0.3785102958901945</v>
       </c>
       <c r="H11">
-        <v>0.6899700013653103</v>
+        <v>0.2933968860144347</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3777341155911529</v>
+        <v>1.235913937040777</v>
       </c>
       <c r="L11">
-        <v>0.3169736965693204</v>
+        <v>0.3254438438344067</v>
       </c>
       <c r="M11">
-        <v>0.2085756467486846</v>
+        <v>0.3756836545222271</v>
       </c>
       <c r="N11">
-        <v>1.631784337438654</v>
+        <v>0.6663975793411225</v>
       </c>
       <c r="O11">
-        <v>2.481161349380983</v>
+        <v>1.366282804702877</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6499499565371423</v>
+        <v>1.612444365122002</v>
       </c>
       <c r="C12">
-        <v>0.3277924212502725</v>
+        <v>0.151153741278879</v>
       </c>
       <c r="D12">
-        <v>0.05098603113340516</v>
+        <v>0.118407080933622</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7308194157070105</v>
+        <v>0.5335045807520089</v>
       </c>
       <c r="G12">
-        <v>0.5632046111054052</v>
+        <v>0.3831270304855678</v>
       </c>
       <c r="H12">
-        <v>0.6892221930554143</v>
+        <v>0.2942109337373608</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3870730428748459</v>
+        <v>1.26624023881925</v>
       </c>
       <c r="L12">
-        <v>0.3183644838023838</v>
+        <v>0.332261577465502</v>
       </c>
       <c r="M12">
-        <v>0.2110587913086093</v>
+        <v>0.3851029577196385</v>
       </c>
       <c r="N12">
-        <v>1.627757604991698</v>
+        <v>0.657059225811536</v>
       </c>
       <c r="O12">
-        <v>2.479882674976295</v>
+        <v>1.377857146379796</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6474685051822178</v>
+        <v>1.603752199052792</v>
       </c>
       <c r="C13">
-        <v>0.3278807135464348</v>
+        <v>0.1513324987284363</v>
       </c>
       <c r="D13">
-        <v>0.05080526866389334</v>
+        <v>0.1178603245407857</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7306598633079773</v>
+        <v>0.5318532899949346</v>
       </c>
       <c r="G13">
-        <v>0.5631789716418467</v>
+        <v>0.3821262507551211</v>
       </c>
       <c r="H13">
-        <v>0.6893815096139662</v>
+        <v>0.2940318932427743</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.385062219941716</v>
+        <v>1.259707558570938</v>
       </c>
       <c r="L13">
-        <v>0.3180639685769222</v>
+        <v>0.3307904156498012</v>
       </c>
       <c r="M13">
-        <v>0.2105235443668221</v>
+        <v>0.3830726095573738</v>
       </c>
       <c r="N13">
-        <v>1.628621386934718</v>
+        <v>0.6590623320442202</v>
       </c>
       <c r="O13">
-        <v>2.480149836724081</v>
+        <v>1.37534292272025</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6393784784588377</v>
+        <v>1.575421338222384</v>
       </c>
       <c r="C14">
-        <v>0.3281702062718246</v>
+        <v>0.151918050324884</v>
       </c>
       <c r="D14">
-        <v>0.05021533727834537</v>
+        <v>0.1160771997075045</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7301494291647614</v>
+        <v>0.5264956082579744</v>
       </c>
       <c r="G14">
-        <v>0.5631036959847791</v>
+        <v>0.3788872106690917</v>
       </c>
       <c r="H14">
-        <v>0.6899076957409562</v>
+        <v>0.2934621880476413</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3785026512749425</v>
+        <v>1.238408295379287</v>
       </c>
       <c r="L14">
-        <v>0.3170876737830497</v>
+        <v>0.3260034702069987</v>
       </c>
       <c r="M14">
-        <v>0.2087797302431227</v>
+        <v>0.3764578116222665</v>
       </c>
       <c r="N14">
-        <v>1.631451502488726</v>
+        <v>0.6656256791516979</v>
       </c>
       <c r="O14">
-        <v>2.48105244606171</v>
+        <v>1.367225397395003</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6344250568642735</v>
+        <v>1.558080055133445</v>
       </c>
       <c r="C15">
-        <v>0.3283487223302082</v>
+        <v>0.1522787009198723</v>
       </c>
       <c r="D15">
-        <v>0.04985366084231657</v>
+        <v>0.1149849499781652</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7298443832821278</v>
+        <v>0.5232348301060199</v>
       </c>
       <c r="G15">
-        <v>0.5630639965040416</v>
+        <v>0.3769220164792273</v>
       </c>
       <c r="H15">
-        <v>0.6902350882985502</v>
+        <v>0.2931240461991678</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3744833230680911</v>
+        <v>1.22536574945417</v>
       </c>
       <c r="L15">
-        <v>0.3164925488410688</v>
+        <v>0.3230795588587227</v>
       </c>
       <c r="M15">
-        <v>0.2077129354411298</v>
+        <v>0.3724110586323306</v>
       </c>
       <c r="N15">
-        <v>1.633195122909882</v>
+        <v>0.6696694395493434</v>
       </c>
       <c r="O15">
-        <v>2.481629403263867</v>
+        <v>1.362315556078926</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6060694659284991</v>
+        <v>1.458880936728832</v>
       </c>
       <c r="C16">
-        <v>0.3293900396975893</v>
+        <v>0.1543757286637444</v>
       </c>
       <c r="D16">
-        <v>0.04777606395862222</v>
+        <v>0.108724832653742</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7282129968261941</v>
+        <v>0.5048615939738923</v>
       </c>
       <c r="G16">
-        <v>0.5629347386213226</v>
+        <v>0.3659411333062081</v>
       </c>
       <c r="H16">
-        <v>0.6921892860498673</v>
+        <v>0.2913488352516254</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3514290615183882</v>
+        <v>1.150677447654374</v>
       </c>
       <c r="L16">
-        <v>0.313126400359053</v>
+        <v>0.3064461718544607</v>
       </c>
       <c r="M16">
-        <v>0.2016202434092307</v>
+        <v>0.3492943101072967</v>
       </c>
       <c r="N16">
-        <v>1.643341797023853</v>
+        <v>0.6931976998512308</v>
       </c>
       <c r="O16">
-        <v>2.485304966579378</v>
+        <v>1.33511257839524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5887019857795508</v>
+        <v>1.398172562171965</v>
       </c>
       <c r="C17">
-        <v>0.3300452204770856</v>
+        <v>0.1556890889395426</v>
       </c>
       <c r="D17">
-        <v>0.04649711606352724</v>
+        <v>0.1048832988406829</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7273164119194391</v>
+        <v>0.4938606962690386</v>
       </c>
       <c r="G17">
-        <v>0.56294311927455</v>
+        <v>0.3594473656926027</v>
       </c>
       <c r="H17">
-        <v>0.6934578198324317</v>
+        <v>0.290401347284444</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3372675973400305</v>
+        <v>1.104899721321317</v>
       </c>
       <c r="L17">
-        <v>0.3111009590216298</v>
+        <v>0.2963472822137874</v>
       </c>
       <c r="M17">
-        <v>0.1979011480845543</v>
+        <v>0.3351752665404106</v>
       </c>
       <c r="N17">
-        <v>1.649704479262693</v>
+        <v>0.7079426328687672</v>
       </c>
       <c r="O17">
-        <v>2.487889438447525</v>
+        <v>1.319233066034798</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5787230973348017</v>
+        <v>1.363304633743041</v>
       </c>
       <c r="C18">
-        <v>0.3304280873913648</v>
+        <v>0.1564543376596568</v>
       </c>
       <c r="D18">
-        <v>0.04575989052661811</v>
+        <v>0.1026731810069279</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7268390500953359</v>
+        <v>0.487629268523726</v>
       </c>
       <c r="G18">
-        <v>0.5629801647350803</v>
+        <v>0.3557984075619771</v>
       </c>
       <c r="H18">
-        <v>0.6942130829448274</v>
+        <v>0.2899070402135493</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3291156948053526</v>
+        <v>1.078582227190623</v>
       </c>
       <c r="L18">
-        <v>0.3099505553605866</v>
+        <v>0.2905757466836718</v>
       </c>
       <c r="M18">
-        <v>0.1957688972947764</v>
+        <v>0.3270759934393581</v>
       </c>
       <c r="N18">
-        <v>1.653414847569652</v>
+        <v>0.7165356236941625</v>
       </c>
       <c r="O18">
-        <v>2.489497152553326</v>
+        <v>1.310387373953432</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5753462294406972</v>
+        <v>1.351507144405531</v>
       </c>
       <c r="C19">
-        <v>0.3305587551450309</v>
+        <v>0.1567151230725656</v>
       </c>
       <c r="D19">
-        <v>0.04551000349029266</v>
+        <v>0.1019247618636996</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7266840096867782</v>
+        <v>0.4855355855215961</v>
       </c>
       <c r="G19">
-        <v>0.5629982428001483</v>
+        <v>0.3545774315946062</v>
       </c>
       <c r="H19">
-        <v>0.6944732072264941</v>
+        <v>0.2897482519652215</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3263544824496307</v>
+        <v>1.069673518786885</v>
       </c>
       <c r="L19">
-        <v>0.3095635548805262</v>
+        <v>0.2886278268973399</v>
       </c>
       <c r="M19">
-        <v>0.195048139119578</v>
+        <v>0.3243373145526078</v>
       </c>
       <c r="N19">
-        <v>1.654679825831345</v>
+        <v>0.7194641074714161</v>
       </c>
       <c r="O19">
-        <v>2.490062317383206</v>
+        <v>1.307440930161505</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.590549709659399</v>
+        <v>1.404629814025412</v>
       </c>
       <c r="C20">
-        <v>0.3299748520959049</v>
+        <v>0.1555482601739477</v>
       </c>
       <c r="D20">
-        <v>0.04663342899679179</v>
+        <v>0.1052922923643749</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7274078885751507</v>
+        <v>0.495021749607524</v>
       </c>
       <c r="G20">
-        <v>0.5629388920579146</v>
+        <v>0.3601296603189184</v>
       </c>
       <c r="H20">
-        <v>0.6933201295251337</v>
+        <v>0.2904969355054732</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3387757965147387</v>
+        <v>1.109771475207424</v>
       </c>
       <c r="L20">
-        <v>0.3113150627698928</v>
+        <v>0.2974184540127993</v>
       </c>
       <c r="M20">
-        <v>0.1982963417443955</v>
+        <v>0.3366759961025139</v>
       </c>
       <c r="N20">
-        <v>1.649021911311709</v>
+        <v>0.7063613584858244</v>
       </c>
       <c r="O20">
-        <v>2.487601775099051</v>
+        <v>1.320893474406546</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6417543095919598</v>
+        <v>1.58374023463756</v>
       </c>
       <c r="C21">
-        <v>0.3280849265887653</v>
+        <v>0.1517456460259687</v>
       </c>
       <c r="D21">
-        <v>0.05038868251985207</v>
+        <v>0.1166009529899412</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7302977703474411</v>
+        <v>0.5280649019338313</v>
       </c>
       <c r="G21">
-        <v>0.5631244706594316</v>
+        <v>0.3798346568504343</v>
       </c>
       <c r="H21">
-        <v>0.6897520818363603</v>
+        <v>0.293627261634839</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3804296489093417</v>
+        <v>1.244663584593496</v>
       </c>
       <c r="L21">
-        <v>0.3173738344168413</v>
+        <v>0.3274077876030077</v>
       </c>
       <c r="M21">
-        <v>0.2092916513837082</v>
+        <v>0.378399688224512</v>
       </c>
       <c r="N21">
-        <v>1.630618125573459</v>
+        <v>0.6636929502004403</v>
       </c>
       <c r="O21">
-        <v>2.480782309270097</v>
+        <v>1.369596656839434</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6753075130396269</v>
+        <v>1.701333469677195</v>
       </c>
       <c r="C22">
-        <v>0.3269031910262221</v>
+        <v>0.1493490578070684</v>
       </c>
       <c r="D22">
-        <v>0.05282837978433008</v>
+        <v>0.1239898876062568</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7325271523060977</v>
+        <v>0.5505892071551699</v>
       </c>
       <c r="G22">
-        <v>0.5635326221809009</v>
+        <v>0.3935465564451732</v>
       </c>
       <c r="H22">
-        <v>0.6876479604629822</v>
+        <v>0.2961536544750203</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4075905038442613</v>
+        <v>1.332989744977056</v>
       </c>
       <c r="L22">
-        <v>0.3214627464742108</v>
+        <v>0.3473716857108258</v>
       </c>
       <c r="M22">
-        <v>0.2165379040909556</v>
+        <v>0.4058889113767492</v>
       </c>
       <c r="N22">
-        <v>1.619041916203168</v>
+        <v>0.6368533268120578</v>
       </c>
       <c r="O22">
-        <v>2.47740343756729</v>
+        <v>1.404193298923502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6573917146165229</v>
+        <v>1.638518355339158</v>
       </c>
       <c r="C23">
-        <v>0.3275290256525771</v>
+        <v>0.1506200003902478</v>
       </c>
       <c r="D23">
-        <v>0.05152761367135383</v>
+        <v>0.1200462934590547</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7313061487607087</v>
+        <v>0.5384788850861568</v>
       </c>
       <c r="G23">
-        <v>0.563288540631163</v>
+        <v>0.3861486303074457</v>
       </c>
       <c r="H23">
-        <v>0.6887501488291861</v>
+        <v>0.2947598267242029</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3931001208585485</v>
+        <v>1.285830476438122</v>
       </c>
       <c r="L23">
-        <v>0.3192686310042347</v>
+        <v>0.3366815566085819</v>
       </c>
       <c r="M23">
-        <v>0.212664986113495</v>
+        <v>0.3911958352315565</v>
       </c>
       <c r="N23">
-        <v>1.625179020627035</v>
+        <v>0.6510799445416264</v>
       </c>
       <c r="O23">
-        <v>2.479108221132662</v>
+        <v>1.385465092553375</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5897143352391936</v>
+        <v>1.401710385143019</v>
       </c>
       <c r="C24">
-        <v>0.3300066463427846</v>
+        <v>0.155611897160437</v>
       </c>
       <c r="D24">
-        <v>0.04657180796370142</v>
+        <v>0.1051073913132186</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7273664133043098</v>
+        <v>0.4944965481013313</v>
       </c>
       <c r="G24">
-        <v>0.5629407027964817</v>
+        <v>0.3598209327731325</v>
       </c>
       <c r="H24">
-        <v>0.6933822984254903</v>
+        <v>0.2904535633543333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3380939716749367</v>
+        <v>1.107568953582046</v>
       </c>
       <c r="L24">
-        <v>0.3112182226959135</v>
+        <v>0.2969340703051842</v>
       </c>
       <c r="M24">
-        <v>0.1981176562811271</v>
+        <v>0.335997460648997</v>
       </c>
       <c r="N24">
-        <v>1.649330337129916</v>
+        <v>0.7070758920577225</v>
       </c>
       <c r="O24">
-        <v>2.48773144808095</v>
+        <v>1.320141922483856</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5171145277089977</v>
+        <v>1.148136759237872</v>
       </c>
       <c r="C25">
-        <v>0.3329096110966887</v>
+        <v>0.1613720798252452</v>
       </c>
       <c r="D25">
-        <v>0.04116480182418059</v>
+        <v>0.08896991893853112</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7245825388630465</v>
+        <v>0.4506862249211139</v>
       </c>
       <c r="G25">
-        <v>0.5637975594416673</v>
+        <v>0.3346787382359651</v>
       </c>
       <c r="H25">
-        <v>0.6993592268542415</v>
+        <v>0.2877303108628553</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2785103765435508</v>
+        <v>0.9157406509886528</v>
       </c>
       <c r="L25">
-        <v>0.3030921844243295</v>
+        <v>0.2554598706105082</v>
       </c>
       <c r="M25">
-        <v>0.1826893768902451</v>
+        <v>0.2772694738358794</v>
       </c>
       <c r="N25">
-        <v>1.677320684818519</v>
+        <v>0.7717372300286254</v>
       </c>
       <c r="O25">
-        <v>2.501667127458333</v>
+        <v>1.260577360691912</v>
       </c>
     </row>
   </sheetData>
